--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2264156.569273111</v>
+        <v>-2266154.242285957</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.71527087401745</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>257.9838057935411</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90.3006794436477</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>210.4783766246287</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>43.16288100277472</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>118.9315118908886</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>25.73468253713878</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>47.46591256754039</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>10.70611463921604</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.791117132838708</v>
+        <v>360.4741587535216</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>142.6271181085175</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.42715891998027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68241414465976</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>64.02545868683266</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>268.2093366443754</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>182.151182912642</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>207.5515170267724</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>50.18647401584066</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>6.257997890846149</v>
+        <v>88.08354545359785</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522963</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E25" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329146</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373733</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789518</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2950,22 +2950,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
         <v>42.2873553346313</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378952</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689375</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3439,10 +3439,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378952</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,7 +3478,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,7 +4189,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1728.856271769277</v>
+        <v>1665.910890478866</v>
       </c>
       <c r="C2" t="n">
-        <v>1359.893754828865</v>
+        <v>1296.948373538454</v>
       </c>
       <c r="D2" t="n">
-        <v>1359.893754828865</v>
+        <v>1296.948373538454</v>
       </c>
       <c r="E2" t="n">
-        <v>974.1055022306211</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>563.1195974410136</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>145.1557893392005</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>145.1557893392005</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2429.515980715757</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2429.515980715757</v>
       </c>
       <c r="W2" t="n">
-        <v>2168.202948062278</v>
+        <v>2429.515980715757</v>
       </c>
       <c r="X2" t="n">
-        <v>2168.202948062278</v>
+        <v>2056.050222454678</v>
       </c>
       <c r="Y2" t="n">
-        <v>1778.063616086466</v>
+        <v>1665.910890478866</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426.3476790823676</v>
+        <v>245.45494510253</v>
       </c>
       <c r="C4" t="n">
-        <v>426.3476790823676</v>
+        <v>245.45494510253</v>
       </c>
       <c r="D4" t="n">
-        <v>426.3476790823676</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4522,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>607.9961439126073</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y4" t="n">
-        <v>607.9961439126073</v>
+        <v>245.45494510253</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>863.1126181035243</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>504.8469194967738</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8469194967738</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>497.9014187475703</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>79.93761064575716</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>79.93761064575716</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.203724788384</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2473.026237102554</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2254.391570074617</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2254.391570074617</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2254.391570074617</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1901.622914804502</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1901.622914804502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1901.622914804502</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296041</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6471865296041</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
         <v>1268.68094731003</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4847,7 +4847,7 @@
         <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>2382.509002921313</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.6523285934728</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>348.1274173019098</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>198.010777889574</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>198.010777889574</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>600.3007934237124</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,31 +5024,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.7003690904323</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909232</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>874.9271131227904</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>620.2426249169035</v>
       </c>
       <c r="W13" t="n">
-        <v>744.3488339206721</v>
+        <v>330.8254548799429</v>
       </c>
       <c r="X13" t="n">
-        <v>744.3488339206721</v>
+        <v>330.8254548799429</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.3488339206721</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5270,13 +5270,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3796.266898524761</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C16" t="n">
-        <v>3627.330715596854</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>3627.330715596854</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>3627.330715596854</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>3627.330715596854</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>4549.85945949167</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>4278.940937628665</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>4024.256449422778</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="W16" t="n">
-        <v>4024.256449422778</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="X16" t="n">
-        <v>3796.266898524761</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="Y16" t="n">
-        <v>3796.266898524761</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5598,19 +5598,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>355.6416303362487</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C19" t="n">
-        <v>355.6416303362487</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362487</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>576.4342094797788</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>576.4342094797788</v>
+        <v>1159.094223674652</v>
       </c>
       <c r="X19" t="n">
-        <v>576.4342094797788</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="Y19" t="n">
-        <v>355.6416303362487</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>843.8929204411535</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C22" t="n">
-        <v>674.9567375132466</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>524.8400981009108</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1292.675050482701</v>
+        <v>1186.157577111451</v>
       </c>
       <c r="V22" t="n">
-        <v>1292.675050482701</v>
+        <v>931.4730889055638</v>
       </c>
       <c r="W22" t="n">
-        <v>1292.675050482701</v>
+        <v>642.0559188686032</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.685499584684</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8929204411535</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,31 +6002,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C25" t="n">
-        <v>559.344147222968</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083214</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
@@ -6148,10 +6148,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6160,37 +6160,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O25" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P25" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S25" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T25" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6467,7 +6467,7 @@
         <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6661,7 +6661,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
         <v>772.2886129010315</v>
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,7 +7093,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254955</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7190,7 +7190,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7391,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229674</v>
@@ -7552,19 +7552,19 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504743</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,10 +9246,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>32.78140656352423</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334.0185707894631</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>40.74579088366061</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>106.7781434981485</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>187.8405841919312</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>154.5591946652621</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>18.02801575420193</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>69.98646041118599</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.58612629705559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>236.3365243207504</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9793545077312</v>
+        <v>198.1538069449795</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-7.267520046882033e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>18391.92434782022</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
@@ -26329,31 +26329,31 @@
         <v>19551.45298688543</v>
       </c>
       <c r="H2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688545</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660712</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="N2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="P2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660709</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.04424660709</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116909.4528448266</v>
+        <v>116909.4528448267</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,13 +26427,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687075</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>44593.39482819119</v>
@@ -26451,10 +26451,10 @@
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
+        <v>44593.39482819121</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.3948281912</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26479,7 +26479,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-771344.4857749603</v>
+        <v>-771557.8977648389</v>
       </c>
       <c r="C6" t="n">
         <v>-227965.9016033268</v>
@@ -26528,16 +26528,16 @@
         <v>-227965.9016033268</v>
       </c>
       <c r="E6" t="n">
-        <v>-619770.517025598</v>
+        <v>-619867.97615157</v>
       </c>
       <c r="F6" t="n">
-        <v>-94610.4805487019</v>
+        <v>-94707.9396746741</v>
       </c>
       <c r="G6" t="n">
-        <v>-94610.4805487019</v>
+        <v>-94707.93967467405</v>
       </c>
       <c r="H6" t="n">
-        <v>-94610.48054870195</v>
+        <v>-94707.9396746741</v>
       </c>
       <c r="I6" t="n">
         <v>-176287.968505322</v>
@@ -26704,16 +26704,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,16 +26756,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26923,25 +26923,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>123.9465642787207</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>61.63063680121356</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>105.4525920154376</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>126.1966337077225</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>7.012490007271317</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>156.5407064594118</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>380.4468215232149</v>
+        <v>25.76377990253195</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>2.793929914413781</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.1574944321145</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32710,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819989</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187324</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>282.0391115195485</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L25" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M25" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N25" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,13 +37239,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,10 +37558,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
